--- a/Data/EC/NIT-9008582580.xlsx
+++ b/Data/EC/NIT-9008582580.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4806A0B-6824-4CDE-8445-EAA634C09C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF635C4-A3CD-4246-8E51-990A49EE40F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B6B8D1DB-A375-475B-82D9-1644627CE387}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6EB0D6A-CB68-4A51-B95C-E1FD270CD7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,78 @@
     <t>DORYS MARCELA LOPEZ ROSERO</t>
   </si>
   <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2110</t>
   </si>
   <si>
@@ -78,78 +150,6 @@
   </si>
   <si>
     <t>GALVAN PEREZ VICTOR ANDRES</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -193,7 +193,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670684C5-974E-2AB4-C33D-AE594D5B395C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956A765D-5B37-B6EF-7F40-649A0EFB6A52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,28 +914,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FBCF0-446F-4C6E-96B2-469E825725C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A2BAC-FBD1-4852-8FE2-959143E415F3}">
   <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -948,7 +948,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -959,7 +959,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -970,7 +970,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -981,8 +981,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
@@ -997,8 +997,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1013,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1029,8 +1029,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>144000</v>
+        <v>110400</v>
       </c>
       <c r="G16" s="18">
         <v>3600000</v>
@@ -1101,30 +1101,30 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G17" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>144000</v>
@@ -1147,30 +1147,30 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G19" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1193,53 +1193,53 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G21" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G22" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>144000</v>
@@ -1262,7 +1262,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>144000</v>
@@ -1285,30 +1285,30 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G25" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>144000</v>
@@ -1331,53 +1331,53 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G27" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G28" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>144000</v>
@@ -1400,30 +1400,30 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G30" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>144000</v>
@@ -1446,7 +1446,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>144000</v>
@@ -1469,30 +1469,30 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G33" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>144000</v>
@@ -1515,30 +1515,30 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G35" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>144000</v>
@@ -1561,53 +1561,53 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G37" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G38" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>144000</v>
@@ -1630,7 +1630,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>144000</v>
@@ -1653,21 +1653,21 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18">
-        <v>69600</v>
+        <v>53360</v>
       </c>
       <c r="G41" s="18">
         <v>1740000</v>
@@ -1676,18 +1676,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>69600</v>
@@ -1699,41 +1699,41 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F43" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G43" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F44" s="18">
         <v>69600</v>
@@ -1745,64 +1745,64 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F45" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G45" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G46" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F47" s="18">
         <v>69600</v>
@@ -1814,18 +1814,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F48" s="18">
         <v>69600</v>
@@ -1837,41 +1837,41 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F49" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G49" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F50" s="18">
         <v>69600</v>
@@ -1883,41 +1883,41 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F51" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G51" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F52" s="18">
         <v>69600</v>
@@ -1929,64 +1929,64 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F53" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G53" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F54" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G54" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F55" s="18">
         <v>69600</v>
@@ -1998,18 +1998,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F56" s="18">
         <v>69600</v>
@@ -2021,41 +2021,41 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F57" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G57" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F58" s="18">
         <v>69600</v>
@@ -2067,41 +2067,41 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F59" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G59" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F60" s="18">
         <v>69600</v>
@@ -2113,41 +2113,41 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F61" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G61" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F62" s="18">
         <v>69600</v>
@@ -2159,67 +2159,67 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F63" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G63" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F64" s="18">
-        <v>110400</v>
+        <v>69600</v>
       </c>
       <c r="G64" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F65" s="24">
-        <v>53360</v>
+        <v>69600</v>
       </c>
       <c r="G65" s="24">
         <v>1740000</v>
@@ -2228,7 +2228,7 @@
       <c r="I65" s="25"/>
       <c r="J65" s="26"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="32" t="s">
         <v>47</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="32" t="s">
         <v>46</v>
       </c>

--- a/Data/EC/NIT-9008582580.xlsx
+++ b/Data/EC/NIT-9008582580.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF635C4-A3CD-4246-8E51-990A49EE40F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A4F397-7AFD-4504-8565-864A54284466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6EB0D6A-CB68-4A51-B95C-E1FD270CD7FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B82DE77D-0367-4228-ABB2-4584688777C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,85 +71,85 @@
     <t>DORYS MARCELA LOPEZ ROSERO</t>
   </si>
   <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1102842803</t>
+  </si>
+  <si>
+    <t>GALVAN PEREZ VICTOR ANDRES</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1102842803</t>
-  </si>
-  <si>
-    <t>GALVAN PEREZ VICTOR ANDRES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -248,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -261,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956A765D-5B37-B6EF-7F40-649A0EFB6A52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970E2BE6-A7F5-FDF8-12FE-F0635ACBBA0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A2BAC-FBD1-4852-8FE2-959143E415F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1160634E-2DE2-439A-8F27-265EFB81E9CC}">
   <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>110400</v>
+        <v>144000</v>
       </c>
       <c r="G16" s="18">
         <v>3600000</v>
@@ -1106,19 +1106,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G17" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1135,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>144000</v>
@@ -1152,19 +1152,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G19" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1198,19 +1198,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G21" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>144000</v>
@@ -1244,19 +1244,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G23" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>144000</v>
@@ -1290,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G25" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1319,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>144000</v>
@@ -1336,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G27" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>144000</v>
@@ -1382,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G29" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>144000</v>
@@ -1428,19 +1428,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G31" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>144000</v>
@@ -1474,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G33" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>144000</v>
@@ -1520,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G35" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1549,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>144000</v>
@@ -1566,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G37" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1595,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>144000</v>
@@ -1612,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>144000</v>
+        <v>69600</v>
       </c>
       <c r="G39" s="18">
-        <v>3600000</v>
+        <v>1740000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1641,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>144000</v>
@@ -1658,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>53360</v>
+        <v>69600</v>
       </c>
       <c r="G41" s="18">
         <v>1740000</v>
@@ -1681,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G42" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1704,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>69600</v>
@@ -1727,19 +1727,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G44" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1750,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
         <v>69600</v>
@@ -1773,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G46" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1796,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>69600</v>
@@ -1819,19 +1819,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G48" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1842,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
         <v>69600</v>
@@ -1865,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G50" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1888,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>69600</v>
@@ -1911,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G52" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1934,13 +1934,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>69600</v>
@@ -1957,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G54" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1980,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
         <v>69600</v>
@@ -2003,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G56" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2026,13 +2026,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
         <v>69600</v>
@@ -2049,19 +2049,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G58" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2072,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>69600</v>
@@ -2095,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G60" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2118,13 +2118,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>69600</v>
@@ -2141,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F62" s="18">
-        <v>69600</v>
+        <v>144000</v>
       </c>
       <c r="G62" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2164,13 +2164,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F63" s="18">
         <v>69600</v>
@@ -2187,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F64" s="18">
-        <v>69600</v>
+        <v>110400</v>
       </c>
       <c r="G64" s="18">
-        <v>1740000</v>
+        <v>3600000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2210,16 +2210,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D65" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="F65" s="24">
-        <v>69600</v>
+        <v>53360</v>
       </c>
       <c r="G65" s="24">
         <v>1740000</v>

--- a/Data/EC/NIT-9008582580.xlsx
+++ b/Data/EC/NIT-9008582580.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A4F397-7AFD-4504-8565-864A54284466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{608058D8-A1D9-452C-8075-90D2D9B2B1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B82DE77D-0367-4228-ABB2-4584688777C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D15134B-A666-4505-8D61-FCC670BE9786}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -263,7 +261,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,29 +457,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,19 +498,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970E2BE6-A7F5-FDF8-12FE-F0635ACBBA0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621DC8AD-A2E0-5056-44A3-78E7652D5804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1160634E-2DE2-439A-8F27-265EFB81E9CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67FD988-93F3-48B4-B416-13DFC9BC7C25}">
   <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -937,49 +943,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -987,7 +993,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008582580</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>5290160</v>
       </c>
@@ -1088,18 +1094,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G16" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1111,18 +1117,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1134,18 +1140,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1157,18 +1163,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1180,18 +1186,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1203,18 +1209,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1226,18 +1232,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1249,18 +1255,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1272,18 +1278,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1295,18 +1301,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1318,18 +1324,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1341,18 +1347,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1364,18 +1370,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1387,18 +1393,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1410,18 +1416,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1433,18 +1439,18 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1456,18 +1462,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1479,18 +1485,18 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1502,18 +1508,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1525,18 +1531,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1548,18 +1554,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1571,18 +1577,18 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1594,18 +1600,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1617,18 +1623,18 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1640,18 +1646,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1663,18 +1669,18 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1686,18 +1692,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1709,18 +1715,18 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1732,18 +1738,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1755,18 +1761,18 @@
       <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1778,18 +1784,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1801,18 +1807,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1824,18 +1830,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1847,18 +1853,18 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1870,18 +1876,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1893,18 +1899,18 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1916,18 +1922,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -1939,18 +1945,18 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -1962,18 +1968,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -1985,18 +1991,18 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2008,18 +2014,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2031,18 +2037,18 @@
       <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F57" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2054,18 +2060,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2077,18 +2083,18 @@
       <c r="D59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2100,18 +2106,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2123,18 +2129,18 @@
       <c r="D61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2146,18 +2152,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>144000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2169,18 +2175,18 @@
       <c r="D63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="18">
-        <v>69600</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1740000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>69600</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1740000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2192,47 +2198,47 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>110400</v>
       </c>
-      <c r="G64" s="18">
-        <v>3600000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="G64" s="19">
+        <v>3600000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="B65" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F65" s="26">
         <v>53360</v>
       </c>
-      <c r="G65" s="24">
-        <v>1740000</v>
-      </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
+      <c r="G65" s="26">
+        <v>1740000</v>
+      </c>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="32"/>
+      <c r="C70" s="34"/>
       <c r="H70" s="1" t="s">
         <v>47</v>
       </c>
@@ -2240,10 +2246,10 @@
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="32"/>
+      <c r="C71" s="34"/>
       <c r="H71" s="1" t="s">
         <v>48</v>
       </c>
